--- a/xlsx/亨利·甘特_intext.xlsx
+++ b/xlsx/亨利·甘特_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%B7%9E</t>
   </si>
   <si>
-    <t>馬里蘭州</t>
+    <t>马里兰州</t>
   </si>
   <si>
     <t>政策_政策_管理_亨利·甘特</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%E5%BC%97%E7%89%B9%E7%B8%A3</t>
   </si>
   <si>
-    <t>卡爾弗特縣</t>
+    <t>卡尔弗特县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E6%96%87%E6%96%AF%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>史蒂文斯理工學院</t>
+    <t>史蒂文斯理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E7%89%B9%E5%9C%96</t>
   </si>
   <si>
-    <t>甘特圖</t>
+    <t>甘特图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E7%AE%A1%E7%90%86</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%A2%B0%E5%B7%A5%E7%A8%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>機械工程師</t>
+    <t>机械工程师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%A6%E5%AE%B6</t>
@@ -95,25 +95,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E4%BD%9B%E6%B0%B4%E5%A3%A9</t>
   </si>
   <si>
-    <t>胡佛水壩</t>
+    <t>胡佛水坝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E9%AB%98%E9%80%9F%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際高速公路系統</t>
+    <t>州际高速公路系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E6%A1%88%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>專案管理</t>
+    <t>专案管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%E5%BC%97%E7%89%B9%E9%83%A1</t>
   </si>
   <si>
-    <t>卡爾弗特郡</t>
+    <t>卡尔弗特郡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%85%8B%C2%B7%E6%B8%A9%E6%96%AF%E7%BD%97%C2%B7%E6%B3%B0%E5%8B%92</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E6%81%86%E9%8B%BC%E9%90%B5</t>
   </si>
   <si>
-    <t>伯利恆鋼鐵</t>
+    <t>伯利恒钢铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -161,25 +161,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>美國人</t>
+    <t>美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E4%BA%BA%E7%89%A9%E5%B0%8F%E4%BD%9C%E5%93%81</t>
   </si>
   <si>
-    <t>Template talk-美國人物小作品</t>
+    <t>Template talk-美国人物小作品</t>
   </si>
 </sst>
 </file>
